--- a/medicine/Enfance/Jane_Langton/Jane_Langton.xlsx
+++ b/medicine/Enfance/Jane_Langton/Jane_Langton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jane Langton, née Gillson le 30 décembre 1922 à Belmont (Massachusetts) et morte le 22 décembre 2018 à Lincoln dans le même État américain[1], est une illustratrice et romancière américaine, auteur de roman policier, d'ouvrages de littérature d’enfance et de jeunesse et de fantasy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Langton, née Gillson le 30 décembre 1922 à Belmont (Massachusetts) et morte le 22 décembre 2018 à Lincoln dans le même État américain, est une illustratrice et romancière américaine, auteur de roman policier, d'ouvrages de littérature d’enfance et de jeunesse et de fantasy.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études supérieures en astronomie amorcées en 1940 au Wellesley College et poursuivies de 1942 à 1945 à l’université du Michigan, Jane Langton obtient ses premiers diplômes et enchaîne avec des études en histoire de l’art dans le même établissement et au Radcliffe College. Elle épouse en 1943, William Langton (mort en 1997), dont elle aura trois fils. En 1955, elle travaille brièvement pour une station de télévision locale de Boston. 
 Elle commence sa carrière littéraire en 1961 avec un roman de littérature d’enfance et de jeunesse, The Majesty of Grace, qui raconte le récit d’une petite fille de la Grande Dépression qui se convainc qu’elle sera un jour reine d’Angleterre. Suivront de nombreux ouvrages pour la jeunesse, parfois illustrés par l’auteur elle-même, dont une série consacrée aux chroniques de la famille Hall.
@@ -546,8 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Homer Kelly
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Homer Kelly</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Transcendental Murder ou The Minuteman Murder (1964)
 Dark Nantucket Noon (1975)
 The Memorial Hall Murder (1978)
@@ -566,7 +589,47 @@
 The Escher Twist (2002)
 The Deserter: Murder at Gettysburg (2003)
 Steeplechase (2005).
-Série jeunesse Les Chroniques de la famille Hall
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jane_Langton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Langton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série jeunesse Les Chroniques de la famille Hall</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Diamond in the Window (1962)
 The Swing in the Summerhouse (1967)
 The Astonishing Stereoscope (1971)
@@ -575,11 +638,88 @@
 The Time Bike (2000)
 The Mysterious Circus (2005)
 The Dragon Tree (2008).
-Série Grace Jones
-The Majesty of Grace ou Her Majesty Grace Jones (1961)
-The Boyhood of Grace Jones (1972)
-Autres romans et ouvrages
-Paper Chains (1977)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jane_Langton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Langton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Grace Jones</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Majesty of Grace ou Her Majesty Grace Jones (1961)
+The Boyhood of Grace Jones (1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jane_Langton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Langton</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans et ouvrages</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Paper Chains (1977)
 The Hedgehog Boy: a Latvian Folktale (1985)
 Salt: from a Russian Folktale (1992)
 The String of Pearls (1994)
@@ -587,37 +727,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jane_Langton</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jane_Langton</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Nero 1984 pour Emily Dickinson Is Dead[2]
-Grand Master Award 2018[3]
-Nomination
-Prix Edgar-Allan-Poe 1985 du meilleur roman pour Emily Dickinson Is Dead[3]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Nero 1984 pour Emily Dickinson Is Dead
+Grand Master Award 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jane_Langton</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jane_Langton</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe 1985 du meilleur roman pour Emily Dickinson Is Dead</t>
         </is>
       </c>
     </row>
